--- a/data/投机分析.xlsx
+++ b/data/投机分析.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ml_invest\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9D8012-B03F-4513-865A-C25D29687D67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22096CA0-CEF8-4CA9-9496-845B13FFFC4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{67156918-7590-4F60-839A-4FAE442BBA1B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="318">
   <si>
     <t>分析</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -860,6 +860,145 @@
   <si>
     <t>抓牛在手</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RU.SHF</t>
+  </si>
+  <si>
+    <t>PB.SHF</t>
+  </si>
+  <si>
+    <t>CU.SHF</t>
+  </si>
+  <si>
+    <t>AL.SHF</t>
+  </si>
+  <si>
+    <t>ZN.SHF</t>
+  </si>
+  <si>
+    <t>AU.SHF</t>
+  </si>
+  <si>
+    <t>RB.SHF</t>
+  </si>
+  <si>
+    <t>WR.SHF</t>
+  </si>
+  <si>
+    <t>SP.SHF</t>
+  </si>
+  <si>
+    <t>BU.SHF</t>
+  </si>
+  <si>
+    <t>AG.SHF</t>
+  </si>
+  <si>
+    <t>HC.SHF</t>
+  </si>
+  <si>
+    <t>SN.SHF</t>
+  </si>
+  <si>
+    <t>NI.SHF</t>
+  </si>
+  <si>
+    <t>SS.SHF</t>
+  </si>
+  <si>
+    <t>TA.ZCE</t>
+  </si>
+  <si>
+    <t>OI.ZCE</t>
+  </si>
+  <si>
+    <t>SF.ZCE</t>
+  </si>
+  <si>
+    <t>SR.ZCE</t>
+  </si>
+  <si>
+    <t>MA.ZCE</t>
+  </si>
+  <si>
+    <t>FG.ZCE</t>
+  </si>
+  <si>
+    <t>EG.DCE</t>
+  </si>
+  <si>
+    <t>SM.ZCE</t>
+  </si>
+  <si>
+    <t>CY.ZCE</t>
+  </si>
+  <si>
+    <t>PM.ZCE</t>
+  </si>
+  <si>
+    <t>WH.ZCE</t>
+  </si>
+  <si>
+    <t>UR.ZCE</t>
+  </si>
+  <si>
+    <t>ZC.ZCE</t>
+  </si>
+  <si>
+    <t>I.DCE</t>
+  </si>
+  <si>
+    <t>M.DCE</t>
+  </si>
+  <si>
+    <t>Y.DCE</t>
+  </si>
+  <si>
+    <t>B.DCE</t>
+  </si>
+  <si>
+    <t>A.DCE</t>
+  </si>
+  <si>
+    <t>EB.DCE</t>
+  </si>
+  <si>
+    <t>BB.DCE</t>
+  </si>
+  <si>
+    <t>PP.DCE</t>
+  </si>
+  <si>
+    <t>FB.DCE</t>
+  </si>
+  <si>
+    <t>CS.DCE</t>
+  </si>
+  <si>
+    <t>C.DCE</t>
+  </si>
+  <si>
+    <t>JM.DCE</t>
+  </si>
+  <si>
+    <t>J.DCE</t>
+  </si>
+  <si>
+    <t>P.DCE</t>
+  </si>
+  <si>
+    <t>JD.DCE</t>
+  </si>
+  <si>
+    <t>SC.INE</t>
+  </si>
+  <si>
+    <t>FU.SHF</t>
   </si>
 </sst>
 </file>
@@ -1232,119 +1371,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4E51B5-142D-42BE-87A4-9C2B77B6ABEB}">
-  <dimension ref="A1:T51"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N42" sqref="N42"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" customWidth="1"/>
-    <col min="14" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5546875" customWidth="1"/>
-    <col min="17" max="17" width="18.44140625" customWidth="1"/>
-    <col min="18" max="18" width="21.21875" customWidth="1"/>
-    <col min="19" max="19" width="15" customWidth="1"/>
-    <col min="20" max="20" width="105.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" customWidth="1"/>
+    <col min="15" max="15" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" customWidth="1"/>
+    <col min="18" max="18" width="18.44140625" customWidth="1"/>
+    <col min="19" max="19" width="21.21875" customWidth="1"/>
+    <col min="20" max="20" width="15" customWidth="1"/>
+    <col min="21" max="21" width="105.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>51</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+      <c r="H2" t="s">
+        <v>21</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1373,39 +1515,42 @@
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="R2" s="1">
-        <f>AVERAGE(H2:Q2)</f>
+      <c r="R2">
         <v>0</v>
       </c>
       <c r="S2" s="1">
-        <f>_xlfn.STDEV.P(H2:Q2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+        <f>AVERAGE(I2:R2)</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <f>_xlfn.STDEV.P(I2:R2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>215</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+      <c r="H3" t="s">
+        <v>21</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1434,39 +1579,42 @@
       <c r="Q3">
         <v>0</v>
       </c>
-      <c r="R3" s="1">
-        <f t="shared" ref="R3:R51" si="0">AVERAGE(H3:Q3)</f>
+      <c r="R3">
         <v>0</v>
       </c>
       <c r="S3" s="1">
-        <f t="shared" ref="S3:S51" si="1">_xlfn.STDEV.P(H3:Q3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" ref="S3:S51" si="0">AVERAGE(I3:R3)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" ref="T3:T51" si="1">_xlfn.STDEV.P(I3:R3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>216</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+      <c r="H4" t="s">
+        <v>21</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1495,39 +1643,42 @@
       <c r="Q4">
         <v>0</v>
       </c>
-      <c r="R4" s="1">
-        <f t="shared" si="0"/>
+      <c r="R4">
         <v>0</v>
       </c>
       <c r="S4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>217</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>34</v>
       </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+      <c r="H5" t="s">
+        <v>21</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1556,39 +1707,42 @@
       <c r="Q5">
         <v>0</v>
       </c>
-      <c r="R5" s="1">
-        <f t="shared" si="0"/>
+      <c r="R5">
         <v>0</v>
       </c>
       <c r="S5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>218</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>37</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>38</v>
       </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+      <c r="H6" t="s">
+        <v>21</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1617,40 +1771,43 @@
       <c r="Q6">
         <v>0</v>
       </c>
-      <c r="R6" s="1">
-        <f t="shared" si="0"/>
+      <c r="R6">
         <v>0</v>
       </c>
       <c r="S6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>41</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>219</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>42</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>43</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>44</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
       <c r="I7">
         <v>0</v>
       </c>
@@ -1678,39 +1835,42 @@
       <c r="Q7">
         <v>0</v>
       </c>
-      <c r="R7" s="1">
-        <f t="shared" si="0"/>
+      <c r="R7">
         <v>0</v>
       </c>
       <c r="S7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>45</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>220</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>46</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>47</v>
       </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+      <c r="H8" t="s">
+        <v>21</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1739,39 +1899,42 @@
       <c r="Q8">
         <v>0</v>
       </c>
-      <c r="R8" s="1">
-        <f t="shared" si="0"/>
+      <c r="R8">
         <v>0</v>
       </c>
       <c r="S8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9" t="s">
         <v>48</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>49</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>50</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>221</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>51</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>52</v>
       </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+      <c r="H9" t="s">
+        <v>21</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1800,39 +1963,42 @@
       <c r="Q9">
         <v>0</v>
       </c>
-      <c r="R9" s="1">
-        <f t="shared" si="0"/>
+      <c r="R9">
         <v>0</v>
       </c>
       <c r="S9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B10" t="s">
         <v>53</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>54</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>222</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>55</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>56</v>
       </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+      <c r="H10" t="s">
+        <v>21</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1861,40 +2027,43 @@
       <c r="Q10">
         <v>0</v>
       </c>
-      <c r="R10" s="1">
-        <f t="shared" si="0"/>
+      <c r="R10">
         <v>0</v>
       </c>
       <c r="S10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>282</v>
+      </c>
+      <c r="B11" t="s">
         <v>57</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>58</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>223</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>59</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>60</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>61</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
       <c r="I11">
         <v>0</v>
       </c>
@@ -1922,40 +2091,43 @@
       <c r="Q11">
         <v>0</v>
       </c>
-      <c r="R11" s="1">
-        <f t="shared" si="0"/>
+      <c r="R11">
         <v>0</v>
       </c>
       <c r="S11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>62</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>224</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>63</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>64</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>65</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
       <c r="I12">
         <v>0</v>
       </c>
@@ -1983,39 +2155,42 @@
       <c r="Q12">
         <v>0</v>
       </c>
-      <c r="R12" s="1">
-        <f t="shared" si="0"/>
+      <c r="R12">
         <v>0</v>
       </c>
       <c r="S12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>284</v>
+      </c>
+      <c r="B13" t="s">
         <v>66</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>67</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>223</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>68</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>69</v>
       </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+      <c r="H13" t="s">
+        <v>21</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2044,39 +2219,42 @@
       <c r="Q13">
         <v>0</v>
       </c>
-      <c r="R13" s="1">
-        <f t="shared" si="0"/>
+      <c r="R13">
         <v>0</v>
       </c>
       <c r="S13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B14" t="s">
         <v>70</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>71</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>225</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>72</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>73</v>
       </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+      <c r="H14" t="s">
+        <v>21</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2105,39 +2283,42 @@
       <c r="Q14">
         <v>0</v>
       </c>
-      <c r="R14" s="1">
-        <f t="shared" si="0"/>
+      <c r="R14">
         <v>0</v>
       </c>
       <c r="S14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>286</v>
+      </c>
+      <c r="B15" t="s">
         <v>74</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>75</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>76</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>226</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>77</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>78</v>
       </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+      <c r="H15" t="s">
+        <v>21</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2166,39 +2347,42 @@
       <c r="Q15">
         <v>0</v>
       </c>
-      <c r="R15" s="1">
-        <f t="shared" si="0"/>
+      <c r="R15">
         <v>0</v>
       </c>
       <c r="S15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>287</v>
+      </c>
+      <c r="B16" t="s">
         <v>79</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>40</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>80</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>227</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>81</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>82</v>
       </c>
-      <c r="G16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+      <c r="H16" t="s">
+        <v>21</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2227,39 +2411,42 @@
       <c r="Q16">
         <v>0</v>
       </c>
-      <c r="R16" s="1">
-        <f t="shared" si="0"/>
+      <c r="R16">
         <v>0</v>
       </c>
       <c r="S16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>288</v>
+      </c>
+      <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>83</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>228</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>84</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>85</v>
       </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+      <c r="H17" t="s">
+        <v>21</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -2288,39 +2475,42 @@
       <c r="Q17">
         <v>0</v>
       </c>
-      <c r="R17" s="1">
-        <f t="shared" si="0"/>
+      <c r="R17">
         <v>0</v>
       </c>
       <c r="S17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>289</v>
+      </c>
+      <c r="B18" t="s">
         <v>86</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>87</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>229</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>88</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>89</v>
       </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+      <c r="H18" t="s">
+        <v>21</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2349,39 +2539,42 @@
       <c r="Q18">
         <v>0</v>
       </c>
-      <c r="R18" s="1">
-        <f t="shared" si="0"/>
+      <c r="R18">
         <v>0</v>
       </c>
       <c r="S18" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>289</v>
+      </c>
+      <c r="B19" t="s">
         <v>90</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>91</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>230</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>92</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>93</v>
       </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+      <c r="H19" t="s">
+        <v>21</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2410,39 +2603,42 @@
       <c r="Q19">
         <v>0</v>
       </c>
-      <c r="R19" s="1">
-        <f t="shared" si="0"/>
+      <c r="R19">
         <v>0</v>
       </c>
       <c r="S19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>290</v>
+      </c>
+      <c r="B20" t="s">
         <v>94</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>17</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>95</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>231</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>96</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>97</v>
       </c>
-      <c r="G20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+      <c r="H20" t="s">
+        <v>21</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2471,39 +2667,42 @@
       <c r="Q20">
         <v>0</v>
       </c>
-      <c r="R20" s="1">
-        <f t="shared" si="0"/>
+      <c r="R20">
         <v>0</v>
       </c>
       <c r="S20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>291</v>
+      </c>
+      <c r="B21" t="s">
         <v>98</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>17</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>99</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>232</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>100</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>101</v>
       </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+      <c r="H21" t="s">
+        <v>21</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2532,39 +2731,42 @@
       <c r="Q21">
         <v>0</v>
       </c>
-      <c r="R21" s="1">
-        <f t="shared" si="0"/>
+      <c r="R21">
         <v>0</v>
       </c>
       <c r="S21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>292</v>
+      </c>
+      <c r="B22" t="s">
         <v>102</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>17</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>103</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>233</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>104</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>105</v>
       </c>
-      <c r="G22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+      <c r="H22" t="s">
+        <v>21</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2593,39 +2795,42 @@
       <c r="Q22">
         <v>0</v>
       </c>
-      <c r="R22" s="1">
-        <f t="shared" si="0"/>
+      <c r="R22">
         <v>0</v>
       </c>
       <c r="S22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>293</v>
+      </c>
+      <c r="B23" t="s">
         <v>106</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>17</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>107</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>234</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>108</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>109</v>
       </c>
-      <c r="G23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+      <c r="H23" t="s">
+        <v>21</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2654,39 +2859,42 @@
       <c r="Q23">
         <v>0</v>
       </c>
-      <c r="R23" s="1">
-        <f t="shared" si="0"/>
+      <c r="R23">
         <v>0</v>
       </c>
       <c r="S23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>294</v>
+      </c>
+      <c r="B24" t="s">
         <v>110</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>111</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>112</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>235</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>51</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>113</v>
       </c>
-      <c r="G24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+      <c r="H24" t="s">
+        <v>21</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2715,39 +2923,42 @@
       <c r="Q24">
         <v>0</v>
       </c>
-      <c r="R24" s="1">
-        <f t="shared" si="0"/>
+      <c r="R24">
         <v>0</v>
       </c>
       <c r="S24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>295</v>
+      </c>
+      <c r="B25" t="s">
         <v>114</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>17</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>115</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>236</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>116</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>117</v>
       </c>
-      <c r="G25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+      <c r="H25" t="s">
+        <v>21</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2776,39 +2987,42 @@
       <c r="Q25">
         <v>0</v>
       </c>
-      <c r="R25" s="1">
-        <f t="shared" si="0"/>
+      <c r="R25">
         <v>0</v>
       </c>
       <c r="S25" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>296</v>
+      </c>
+      <c r="B26" t="s">
         <v>118</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>17</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>119</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>237</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>120</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>121</v>
       </c>
-      <c r="G26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
+      <c r="H26" t="s">
+        <v>21</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2837,39 +3051,42 @@
       <c r="Q26">
         <v>0</v>
       </c>
-      <c r="R26" s="1">
-        <f t="shared" si="0"/>
+      <c r="R26">
         <v>0</v>
       </c>
       <c r="S26" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>297</v>
+      </c>
+      <c r="B27" t="s">
         <v>122</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>111</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>123</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>235</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>51</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>124</v>
       </c>
-      <c r="G27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
+      <c r="H27" t="s">
+        <v>21</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2898,39 +3115,42 @@
       <c r="Q27">
         <v>0</v>
       </c>
-      <c r="R27" s="1">
-        <f t="shared" si="0"/>
+      <c r="R27">
         <v>0</v>
       </c>
       <c r="S27" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>298</v>
+      </c>
+      <c r="B28" t="s">
         <v>125</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>126</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>127</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>235</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>128</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>129</v>
       </c>
-      <c r="G28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
+      <c r="H28" t="s">
+        <v>21</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2959,39 +3179,42 @@
       <c r="Q28">
         <v>0</v>
       </c>
-      <c r="R28" s="1">
-        <f t="shared" si="0"/>
+      <c r="R28">
         <v>0</v>
       </c>
       <c r="S28" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>299</v>
+      </c>
+      <c r="B29" t="s">
         <v>130</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>17</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>131</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>238</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>132</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>133</v>
       </c>
-      <c r="G29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
+      <c r="H29" t="s">
+        <v>21</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -3020,39 +3243,42 @@
       <c r="Q29">
         <v>0</v>
       </c>
-      <c r="R29" s="1">
-        <f t="shared" si="0"/>
+      <c r="R29">
         <v>0</v>
       </c>
       <c r="S29" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>300</v>
+      </c>
+      <c r="B30" t="s">
         <v>134</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>17</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>135</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>239</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>136</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>137</v>
       </c>
-      <c r="G30" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
+      <c r="H30" t="s">
+        <v>21</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -3081,39 +3307,42 @@
       <c r="Q30">
         <v>0</v>
       </c>
-      <c r="R30" s="1">
-        <f t="shared" si="0"/>
+      <c r="R30">
         <v>0</v>
       </c>
       <c r="S30" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>295</v>
+      </c>
+      <c r="B31" t="s">
         <v>138</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>17</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>139</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>240</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>140</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>141</v>
       </c>
-      <c r="G31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
+      <c r="H31" t="s">
+        <v>21</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -3142,39 +3371,42 @@
       <c r="Q31">
         <v>0</v>
       </c>
-      <c r="R31" s="1">
-        <f t="shared" si="0"/>
+      <c r="R31">
         <v>0</v>
       </c>
       <c r="S31" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>294</v>
+      </c>
+      <c r="B32" t="s">
         <v>142</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>17</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>143</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>241</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>144</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>145</v>
       </c>
-      <c r="G32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
+      <c r="H32" t="s">
+        <v>21</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -3203,40 +3435,43 @@
       <c r="Q32">
         <v>0</v>
       </c>
-      <c r="R32" s="1">
-        <f t="shared" si="0"/>
+      <c r="R32">
         <v>0</v>
       </c>
       <c r="S32" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>301</v>
+      </c>
+      <c r="B33" t="s">
         <v>146</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>17</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>147</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>242</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>148</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>149</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>150</v>
       </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
       <c r="I33">
         <v>0</v>
       </c>
@@ -3264,39 +3499,42 @@
       <c r="Q33">
         <v>0</v>
       </c>
-      <c r="R33" s="1">
-        <f t="shared" si="0"/>
+      <c r="R33">
         <v>0</v>
       </c>
       <c r="S33" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>302</v>
+      </c>
+      <c r="B34" t="s">
         <v>9</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>17</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>151</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>243</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>152</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>153</v>
       </c>
-      <c r="G34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
+      <c r="H34" t="s">
+        <v>21</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3325,39 +3563,42 @@
       <c r="Q34">
         <v>0</v>
       </c>
-      <c r="R34" s="1">
-        <f t="shared" si="0"/>
+      <c r="R34">
         <v>0</v>
       </c>
       <c r="S34" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>303</v>
+      </c>
+      <c r="B35" t="s">
         <v>5</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>17</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>154</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>244</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>155</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>156</v>
       </c>
-      <c r="G35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
+      <c r="H35" t="s">
+        <v>21</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -3386,39 +3627,42 @@
       <c r="Q35">
         <v>0</v>
       </c>
-      <c r="R35" s="1">
-        <f t="shared" si="0"/>
+      <c r="R35">
         <v>0</v>
       </c>
       <c r="S35" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>304</v>
+      </c>
+      <c r="B36" t="s">
         <v>157</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>23</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>158</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>245</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>159</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>160</v>
       </c>
-      <c r="G36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
+      <c r="H36" t="s">
+        <v>21</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3447,39 +3691,42 @@
       <c r="Q36">
         <v>0</v>
       </c>
-      <c r="R36" s="1">
-        <f t="shared" si="0"/>
+      <c r="R36">
         <v>0</v>
       </c>
       <c r="S36" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>305</v>
+      </c>
+      <c r="B37" t="s">
         <v>1</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>17</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>161</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>223</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>162</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>163</v>
       </c>
-      <c r="G37" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
+      <c r="H37" t="s">
+        <v>21</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3508,39 +3755,42 @@
       <c r="Q37">
         <v>0</v>
       </c>
-      <c r="R37" s="1">
-        <f t="shared" si="0"/>
+      <c r="R37">
         <v>0</v>
       </c>
       <c r="S37" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>306</v>
+      </c>
+      <c r="B38" t="s">
         <v>164</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>17</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>165</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>246</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>166</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>167</v>
       </c>
-      <c r="G38" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
+      <c r="H38" t="s">
+        <v>21</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3569,27 +3819,30 @@
       <c r="Q38">
         <v>0</v>
       </c>
-      <c r="R38" s="1">
-        <f t="shared" si="0"/>
+      <c r="R38">
         <v>0</v>
       </c>
       <c r="S38" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>307</v>
+      </c>
+      <c r="B39" t="s">
         <v>168</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>126</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>169</v>
-      </c>
-      <c r="D39" t="s">
-        <v>51</v>
       </c>
       <c r="E39" t="s">
         <v>51</v>
@@ -3598,11 +3851,11 @@
         <v>51</v>
       </c>
       <c r="G39" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" t="s">
         <v>170</v>
       </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
       <c r="I39">
         <v>0</v>
       </c>
@@ -3630,39 +3883,42 @@
       <c r="Q39">
         <v>0</v>
       </c>
-      <c r="R39" s="1">
-        <f t="shared" si="0"/>
+      <c r="R39">
         <v>0</v>
       </c>
       <c r="S39" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>308</v>
+      </c>
+      <c r="B40" t="s">
         <v>171</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>17</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>172</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>247</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>173</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>174</v>
       </c>
-      <c r="G40" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
+      <c r="H40" t="s">
+        <v>21</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -3691,39 +3947,42 @@
       <c r="Q40">
         <v>0</v>
       </c>
-      <c r="R40" s="1">
-        <f t="shared" si="0"/>
+      <c r="R40">
         <v>0</v>
       </c>
       <c r="S40" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>308</v>
+      </c>
+      <c r="B41" t="s">
         <v>175</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>17</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>176</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>248</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>177</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>178</v>
       </c>
-      <c r="G41" t="s">
-        <v>21</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
+      <c r="H41" t="s">
+        <v>21</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -3752,39 +4011,42 @@
       <c r="Q41">
         <v>0</v>
       </c>
-      <c r="R41" s="1">
-        <f t="shared" si="0"/>
+      <c r="R41">
         <v>0</v>
       </c>
       <c r="S41" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>308</v>
+      </c>
+      <c r="B42" t="s">
         <v>179</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>17</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>180</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>249</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>181</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>182</v>
       </c>
-      <c r="G42" t="s">
-        <v>21</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
+      <c r="H42" t="s">
+        <v>21</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -3813,40 +4075,43 @@
       <c r="Q42">
         <v>0</v>
       </c>
-      <c r="R42" s="1">
-        <f t="shared" si="0"/>
+      <c r="R42">
         <v>0</v>
       </c>
       <c r="S42" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>309</v>
+      </c>
+      <c r="B43" t="s">
         <v>183</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>17</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>184</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>250</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>185</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>186</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>170</v>
       </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
       <c r="I43">
         <v>0</v>
       </c>
@@ -3874,39 +4139,42 @@
       <c r="Q43">
         <v>0</v>
       </c>
-      <c r="R43" s="1">
-        <f t="shared" si="0"/>
+      <c r="R43">
         <v>0</v>
       </c>
       <c r="S43" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>310</v>
+      </c>
+      <c r="B44" t="s">
         <v>187</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>17</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>188</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>251</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>189</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>190</v>
       </c>
-      <c r="G44" t="s">
-        <v>21</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
+      <c r="H44" t="s">
+        <v>21</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -3935,39 +4203,42 @@
       <c r="Q44">
         <v>0</v>
       </c>
-      <c r="R44" s="1">
-        <f t="shared" si="0"/>
+      <c r="R44">
         <v>0</v>
       </c>
       <c r="S44" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>311</v>
+      </c>
+      <c r="B45" t="s">
         <v>191</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>17</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>192</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>251</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>193</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>194</v>
       </c>
-      <c r="G45" t="s">
-        <v>21</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
+      <c r="H45" t="s">
+        <v>21</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -3996,39 +4267,42 @@
       <c r="Q45">
         <v>0</v>
       </c>
-      <c r="R45" s="1">
-        <f t="shared" si="0"/>
+      <c r="R45">
         <v>0</v>
       </c>
       <c r="S45" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T45" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>312</v>
+      </c>
+      <c r="B46" t="s">
         <v>195</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>17</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>196</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>252</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>197</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>198</v>
       </c>
-      <c r="G46" t="s">
-        <v>21</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
+      <c r="H46" t="s">
+        <v>21</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -4057,39 +4331,42 @@
       <c r="Q46">
         <v>0</v>
       </c>
-      <c r="R46" s="1">
-        <f t="shared" si="0"/>
+      <c r="R46">
         <v>0</v>
       </c>
       <c r="S46" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T46" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>313</v>
+      </c>
+      <c r="B47" t="s">
         <v>199</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>17</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>200</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>253</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>201</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>202</v>
       </c>
-      <c r="G47" t="s">
-        <v>21</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
+      <c r="H47" t="s">
+        <v>21</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -4118,39 +4395,42 @@
       <c r="Q47">
         <v>0</v>
       </c>
-      <c r="R47" s="1">
-        <f t="shared" si="0"/>
+      <c r="R47">
         <v>0</v>
       </c>
       <c r="S47" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T47" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>314</v>
+      </c>
+      <c r="B48" t="s">
         <v>4</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>17</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>203</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>254</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>204</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>205</v>
       </c>
-      <c r="G48" t="s">
-        <v>21</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
+      <c r="H48" t="s">
+        <v>21</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -4179,40 +4459,43 @@
       <c r="Q48">
         <v>0</v>
       </c>
-      <c r="R48" s="1">
-        <f t="shared" si="0"/>
+      <c r="R48">
         <v>0</v>
       </c>
       <c r="S48" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T48" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>315</v>
+      </c>
+      <c r="B49" t="s">
         <v>206</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>17</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>207</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>255</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>208</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>209</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>210</v>
       </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
       <c r="I49">
         <v>0</v>
       </c>
@@ -4240,40 +4523,43 @@
       <c r="Q49">
         <v>0</v>
       </c>
-      <c r="R49" s="1">
-        <f t="shared" si="0"/>
+      <c r="R49">
         <v>0</v>
       </c>
       <c r="S49" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>316</v>
+      </c>
+      <c r="B50" t="s">
         <v>6</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>23</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>211</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>251</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>212</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>213</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>214</v>
       </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
       <c r="I50">
         <v>0</v>
       </c>
@@ -4301,25 +4587,28 @@
       <c r="Q50">
         <v>0</v>
       </c>
-      <c r="R50" s="1">
-        <f t="shared" si="0"/>
+      <c r="R50">
         <v>0</v>
       </c>
       <c r="S50" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T50" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>317</v>
+      </c>
+      <c r="B51" t="s">
         <v>256</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>17</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
       <c r="I51">
         <v>0</v>
       </c>
@@ -4347,18 +4636,21 @@
       <c r="Q51">
         <v>0</v>
       </c>
-      <c r="R51" s="1">
-        <f t="shared" si="0"/>
+      <c r="R51">
         <v>0</v>
       </c>
       <c r="S51" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T51" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="R2:S51">
+  <conditionalFormatting sqref="S2:T51">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -4385,7 +4677,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>R2:S51</xm:sqref>
+          <xm:sqref>S2:T51</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
